--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3953.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3953.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.26719437046971</v>
+        <v>0.8985665440559387</v>
       </c>
       <c r="B1">
-        <v>2.426444179031532</v>
+        <v>1.504457116127014</v>
       </c>
       <c r="C1">
-        <v>6.641474240901771</v>
+        <v>4.167180061340332</v>
       </c>
       <c r="D1">
-        <v>2.921626633247383</v>
+        <v>1.307035803794861</v>
       </c>
       <c r="E1">
-        <v>1.343408407835252</v>
+        <v>0.8377922773361206</v>
       </c>
     </row>
   </sheetData>
